--- a/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="162">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,114 +40,123 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>complaints</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>problem</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>isolation</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -157,187 +166,193 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>security</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>super</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>protect</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>offering</t>
   </si>
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>growth</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>available</t>
   </si>
   <si>
     <t>give</t>
@@ -349,145 +364,139 @@
     <t>increased</t>
   </si>
   <si>
-    <t>community</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>line</t>
   </si>
   <si>
     <t>service</t>
   </si>
   <si>
-    <t>want</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>business</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
     <t>hands</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
     <t>check</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>staff</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>read</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>stores</t>
   </si>
   <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>keep</t>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>san</t>
   </si>
   <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>get</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>toilet</t>
   </si>
   <si>
     <t>go</t>
   </si>
   <si>
-    <t>workers</t>
-  </si>
-  <si>
     <t>people</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>prices</t>
@@ -856,10 +865,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -920,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -938,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -970,10 +979,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -988,16 +997,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1009,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1017,13 +1026,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1035,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.9696969696969697</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1059,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1067,13 +1076,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1085,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.9615384615384616</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1109,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1117,13 +1126,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1135,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.9322033898305084</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1159,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1167,13 +1176,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7294520547945206</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1185,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1217,38 +1226,38 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6896551724137931</v>
+        <v>0.7294520547945206</v>
       </c>
       <c r="C9">
+        <v>213</v>
+      </c>
+      <c r="D9">
+        <v>213</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>79</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L9">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="M9">
         <v>20</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>9</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L9">
-        <v>23</v>
-      </c>
-      <c r="M9">
-        <v>23</v>
-      </c>
       <c r="N9">
         <v>1</v>
       </c>
@@ -1259,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1267,13 +1276,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1285,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.8482142857142857</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1309,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1317,13 +1326,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1335,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.8431372549019608</v>
+        <v>0.875</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="M11">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1359,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1367,13 +1376,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1385,19 +1394,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.8421052631578947</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1409,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1417,13 +1426,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6129032258064516</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1435,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1459,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1467,13 +1476,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6052631578947368</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1485,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.8292682926829268</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L14">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M14">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1509,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1517,13 +1526,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5909090909090909</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1538,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K15">
         <v>0.8203125</v>
@@ -1567,13 +1576,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5897435897435898</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1585,31 +1594,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.8148148148148148</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1617,13 +1626,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5769230769230769</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1635,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.8125</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L17">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1659,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1667,13 +1676,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5333333333333333</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1685,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.8103448275862069</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1709,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1717,13 +1726,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5135135135135135</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1735,19 +1744,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K19">
-        <v>0.8028169014084507</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L19">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1759,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1767,13 +1776,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1785,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K20">
         <v>0.7857142857142857</v>
@@ -1817,13 +1826,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1838,16 +1847,16 @@
         <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.7666666666666667</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L21">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1859,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1867,13 +1876,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4814814814814815</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1885,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1909,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1917,37 +1926,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4728682170542636</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C23">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K23">
-        <v>0.7547169811320755</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L23">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1959,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1967,13 +1976,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4429530201342282</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C24">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1985,19 +1994,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2009,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2017,37 +2026,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4358974358974359</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>17</v>
       </c>
-      <c r="D25">
-        <v>17</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>22</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>0.7301587301587301</v>
+        <v>0.74375</v>
       </c>
       <c r="L25">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="M25">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2059,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2067,7 +2076,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4193548387096774</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -2085,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K26">
-        <v>0.7125</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L26">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="M26">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2109,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2117,13 +2126,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4054054054054054</v>
+        <v>0.4263565891472868</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2135,19 +2144,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>22</v>
+        <v>296</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.6736292428198434</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2159,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>125</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2167,13 +2176,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.392156862745098</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2185,19 +2194,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K28">
-        <v>0.6702127659574468</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L28">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2209,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2217,13 +2226,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3898305084745763</v>
+        <v>0.40625</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2235,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2259,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2267,13 +2276,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3866666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2285,19 +2294,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K30">
-        <v>0.6521739130434783</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2309,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2317,13 +2326,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3636363636363636</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2335,19 +2344,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K31">
-        <v>0.6444444444444445</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2359,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2367,13 +2376,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3386243386243386</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C32">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2385,19 +2394,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K32">
-        <v>0.64</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2409,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2417,13 +2426,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2435,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K33">
-        <v>0.6279069767441861</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2467,13 +2476,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3333333333333333</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2485,19 +2494,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K34">
-        <v>0.6176470588235294</v>
+        <v>0.6501305483028721</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2509,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2517,37 +2526,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.275</v>
+        <v>0.35</v>
       </c>
       <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>26</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L35">
         <v>22</v>
       </c>
-      <c r="D35">
+      <c r="M35">
         <v>22</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>58</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K35">
-        <v>0.6129032258064516</v>
-      </c>
-      <c r="L35">
-        <v>19</v>
-      </c>
-      <c r="M35">
-        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2567,13 +2576,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2738095238095238</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C36">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D36">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2585,19 +2594,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>0.6086956521739131</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2609,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2617,13 +2626,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2545454545454545</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2635,19 +2644,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>0.6071428571428571</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2659,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2667,7 +2676,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2542372881355932</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C38">
         <v>15</v>
@@ -2685,19 +2694,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K38">
-        <v>0.5909090909090909</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2709,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2717,37 +2726,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1317204301075269</v>
+        <v>0.2875</v>
       </c>
       <c r="C39">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E39">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>323</v>
+        <v>57</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K39">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2759,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2767,37 +2776,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1090909090909091</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K40">
-        <v>0.5769230769230769</v>
+        <v>0.5970588235294118</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2809,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>11</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2817,37 +2826,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009741350352704065</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C41">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D41">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="E41">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>2948</v>
+        <v>192</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K41">
-        <v>0.575</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2859,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2867,37 +2876,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.007675087943716022</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C42">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D42">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E42">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>3103</v>
+        <v>309</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K42">
-        <v>0.5728813559322034</v>
+        <v>0.5898305084745763</v>
       </c>
       <c r="L42">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M42">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2909,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2917,89 +2926,137 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.007035175879396985</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>150</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K43">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L43">
         <v>14</v>
       </c>
-      <c r="D43">
-        <v>167</v>
-      </c>
-      <c r="E43">
+      <c r="M43">
+        <v>14</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.00841467519353753</v>
+      </c>
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <v>161</v>
+      </c>
+      <c r="E44">
+        <v>0.84</v>
+      </c>
+      <c r="F44">
+        <v>0.16</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2946</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44">
+        <v>0.5806451612903226</v>
+      </c>
+      <c r="L44">
+        <v>18</v>
+      </c>
+      <c r="M44">
+        <v>18</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.007052896725440806</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>172</v>
+      </c>
+      <c r="E45">
         <v>0.92</v>
       </c>
-      <c r="F43">
+      <c r="F45">
         <v>0.07999999999999996</v>
       </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1976</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K43">
-        <v>0.5705882352941176</v>
-      </c>
-      <c r="L43">
-        <v>194</v>
-      </c>
-      <c r="M43">
-        <v>194</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K44">
-        <v>0.5625</v>
-      </c>
-      <c r="L44">
-        <v>27</v>
-      </c>
-      <c r="M44">
-        <v>27</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1971</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K45">
-        <v>0.5416666666666666</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3015,17 +3072,41 @@
       </c>
     </row>
     <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.006730769230769231</v>
+      </c>
+      <c r="C46">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>102</v>
+      </c>
+      <c r="E46">
+        <v>0.79</v>
+      </c>
+      <c r="F46">
+        <v>0.21</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>3099</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K46">
-        <v>0.5393258426966292</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L46">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3037,21 +3118,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K47">
-        <v>0.5357142857142857</v>
+        <v>0.575</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3063,21 +3144,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K48">
-        <v>0.525</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3089,21 +3170,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K49">
-        <v>0.5230769230769231</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L49">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3115,21 +3196,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K50">
-        <v>0.5230125523012552</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L50">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="M50">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3141,21 +3222,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K51">
-        <v>0.5151515151515151</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3167,21 +3248,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K52">
-        <v>0.5142857142857142</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M52">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3193,21 +3274,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K53">
-        <v>0.5106382978723404</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3219,12 +3300,12 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K54">
         <v>0.5</v>
@@ -3250,16 +3331,16 @@
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K55">
-        <v>0.4761904761904762</v>
+        <v>0.5</v>
       </c>
       <c r="L55">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3271,21 +3352,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K56">
-        <v>0.4743589743589743</v>
+        <v>0.5</v>
       </c>
       <c r="L56">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3297,21 +3378,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K57">
-        <v>0.4714285714285714</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="L57">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3323,21 +3404,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K58">
-        <v>0.4520547945205479</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L58">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M58">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3349,21 +3430,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K59">
-        <v>0.4193548387096774</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3375,21 +3456,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K60">
-        <v>0.40625</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L60">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M60">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3401,21 +3482,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K61">
-        <v>0.3770491803278688</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3427,21 +3508,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K62">
-        <v>0.3559322033898305</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L62">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3453,15 +3534,15 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K63">
-        <v>0.3333333333333333</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L63">
         <v>24</v>
@@ -3479,21 +3560,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K64">
-        <v>0.2978723404255319</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L64">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M64">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3505,47 +3586,47 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K65">
-        <v>0.253968253968254</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="L65">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K66">
-        <v>0.2421052631578947</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3557,47 +3638,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K67">
-        <v>0.2384615384615385</v>
+        <v>0.2526315789473684</v>
       </c>
       <c r="L67">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M67">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K68">
-        <v>0.2362204724409449</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="L68">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3609,21 +3690,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K69">
-        <v>0.2280701754385965</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="L69">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M69">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3635,15 +3716,15 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K70">
-        <v>0.2203389830508475</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L70">
         <v>13</v>
@@ -3661,21 +3742,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K71">
-        <v>0.208955223880597</v>
+        <v>0.2047244094488189</v>
       </c>
       <c r="L71">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M71">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3687,73 +3768,73 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K72">
-        <v>0.2087912087912088</v>
+        <v>0.1942446043165468</v>
       </c>
       <c r="L72">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="M72">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>72</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K73">
-        <v>0.2018348623853211</v>
+        <v>0.1875</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M73">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K74">
-        <v>0.191358024691358</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="L74">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M74">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N74">
         <v>0.97</v>
@@ -3765,21 +3846,21 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>131</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K75">
-        <v>0.1774580335731415</v>
+        <v>0.1734939759036145</v>
       </c>
       <c r="L75">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M75">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N75">
         <v>0.99</v>
@@ -3796,16 +3877,16 @@
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K76">
-        <v>0.1752577319587629</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="L76">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M76">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3817,82 +3898,82 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K77">
-        <v>0.1711711711711712</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="L77">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M77">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N77">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K78">
-        <v>0.1682242990654206</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L78">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M78">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N78">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="O78">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>178</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K79">
-        <v>0.1674418604651163</v>
+        <v>0.1556603773584906</v>
       </c>
       <c r="L79">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M79">
         <v>36</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
         <v>179</v>
@@ -3900,16 +3981,16 @@
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K80">
-        <v>0.1658653846153846</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="L80">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="M80">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3921,21 +4002,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>347</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K81">
-        <v>0.163265306122449</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L81">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M81">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3947,41 +4028,41 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K82">
-        <v>0.1572327044025157</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L82">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M82">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K83">
-        <v>0.1521739130434783</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L83">
         <v>14</v>
@@ -3999,12 +4080,12 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K84">
         <v>0.1511627906976744</v>
@@ -4030,16 +4111,16 @@
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K85">
-        <v>0.1454545454545454</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L85">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M85">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -4051,21 +4132,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K86">
-        <v>0.1379310344827586</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L86">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M86">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -4077,21 +4158,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K87">
-        <v>0.1326530612244898</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="L87">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M87">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -4103,21 +4184,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K88">
-        <v>0.1304347826086956</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="L88">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M88">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -4129,47 +4210,47 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K89">
-        <v>0.1231884057971015</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L89">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M89">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K90">
-        <v>0.1160714285714286</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L90">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M90">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -4181,21 +4262,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K91">
-        <v>0.1131019036954087</v>
+        <v>0.1198208286674132</v>
       </c>
       <c r="L91">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M91">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N91">
         <v>0.99</v>
@@ -4207,21 +4288,21 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K92">
-        <v>0.1129032258064516</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="L92">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M92">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -4233,21 +4314,21 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K93">
-        <v>0.1118881118881119</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="L93">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M93">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -4259,47 +4340,47 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K94">
-        <v>0.1048034934497817</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="L94">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M94">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N94">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>205</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K95">
-        <v>0.1027027027027027</v>
+        <v>0.1159420289855072</v>
       </c>
       <c r="L95">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M95">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -4311,47 +4392,47 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>166</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K96">
-        <v>0.1012658227848101</v>
+        <v>0.1138461538461538</v>
       </c>
       <c r="L96">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M96">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N96">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O96">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>142</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K97">
-        <v>0.100111234705228</v>
+        <v>0.09788654060066741</v>
       </c>
       <c r="L97">
+        <v>88</v>
+      </c>
+      <c r="M97">
         <v>90</v>
-      </c>
-      <c r="M97">
-        <v>92</v>
       </c>
       <c r="N97">
         <v>0.98</v>
@@ -4363,449 +4444,449 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K98">
-        <v>0.09771986970684039</v>
+        <v>0.09154929577464789</v>
       </c>
       <c r="L98">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M98">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N98">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O98">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>277</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K99">
-        <v>0.09509202453987731</v>
+        <v>0.08912037037037036</v>
       </c>
       <c r="L99">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="M99">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="N99">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O99">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>295</v>
+        <v>787</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K100">
-        <v>0.07621247113163972</v>
+        <v>0.08270676691729323</v>
       </c>
       <c r="L100">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M100">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="N100">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O100">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>800</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K101">
-        <v>0.07596899224806201</v>
+        <v>0.08116883116883117</v>
       </c>
       <c r="L101">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M101">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="N101">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>596</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="K102">
-        <v>0.07216494845360824</v>
+        <v>0.07421324565523719</v>
       </c>
       <c r="L102">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="M102">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="N102">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O102">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P102" t="b">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>450</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K103">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="L103">
         <v>48</v>
       </c>
-      <c r="K103">
-        <v>0.07186472522310944</v>
-      </c>
-      <c r="L103">
-        <v>153</v>
-      </c>
       <c r="M103">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="N103">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O103">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>1976</v>
+        <v>600</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K104">
-        <v>0.07142857142857142</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="L104">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N104">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="O104">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>247</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K105">
-        <v>0.0498220640569395</v>
+        <v>0.07010309278350516</v>
       </c>
       <c r="L105">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M105">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105">
-        <v>267</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K106">
-        <v>0.0446927374301676</v>
+        <v>0.05901639344262295</v>
       </c>
       <c r="L106">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M106">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N106">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="O106">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>342</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K107">
-        <v>0.04391891891891892</v>
+        <v>0.05157593123209169</v>
       </c>
       <c r="L107">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M107">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N107">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O107">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>283</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K108">
+        <v>0.04791666666666667</v>
+      </c>
+      <c r="L108">
         <v>46</v>
       </c>
-      <c r="K108">
-        <v>0.04223521767381416</v>
-      </c>
-      <c r="L108">
-        <v>130</v>
-      </c>
       <c r="M108">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="N108">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="O108">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>2948</v>
+        <v>914</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K109">
-        <v>0.03903345724907063</v>
+        <v>0.04440497335701599</v>
       </c>
       <c r="L109">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M109">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N109">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="O109">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>517</v>
+        <v>538</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="K110">
-        <v>0.03893805309734513</v>
+        <v>0.04412719013627515</v>
       </c>
       <c r="L110">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="M110">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="N110">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="O110">
-        <v>0.07999999999999996</v>
+        <v>0.16</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>543</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K111">
-        <v>0.03768115942028986</v>
+        <v>0.03899721448467967</v>
       </c>
       <c r="L111">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M111">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N111">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="O111">
-        <v>0.24</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K112">
-        <v>0.03634475597092419</v>
+        <v>0.03159851301115241</v>
       </c>
       <c r="L112">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M112">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N112">
-        <v>0.88</v>
+        <v>0.71</v>
       </c>
       <c r="O112">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>928</v>
+        <v>521</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="K113">
-        <v>0.02775368603642671</v>
+        <v>0.02547169811320755</v>
       </c>
       <c r="L113">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="M113">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="N113">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="O113">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>1121</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="K114">
-        <v>0.02329241422725842</v>
+        <v>0.02512998266897747</v>
       </c>
       <c r="L114">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M114">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="N114">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O114">
-        <v>0.24</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>3103</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
